--- a/TimeSheets.xlsx
+++ b/TimeSheets.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlaur\Documents\GitHub\Project-Fynbus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaml\Documents\GitHub\Project-Fynbus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="project_fynbus_time_tracking" localSheetId="1">Sheet3!$A$1:$G$53</definedName>
+    <definedName name="project_fynbus_time_tracking" localSheetId="1">Sheet2!$A$1:$G$71</definedName>
     <definedName name="project_fynbus_time_tracking_3" localSheetId="0">Sheet1!$A$1:$G$45</definedName>
     <definedName name="Week1">Sheet1!$E$2:$E$25</definedName>
-    <definedName name="Week2">Sheet1!$E$26:$E$45</definedName>
+    <definedName name="Week2">Sheet1!$E$26:$E$57</definedName>
+    <definedName name="Week3">Sheet1!$E$58:$E$71</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -33,7 +34,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="project_fynbus_time_tracking" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="65001" sourceFile="C:\Users\jlaur\Downloads\project_fynbus_time_tracking.csv" comma="1">
+    <textPr codePage="65001" sourceFile="C:\Users\joaml\Downloads\project_fynbus_time_tracking.csv" comma="1">
       <textFields count="7">
         <textField type="MDY"/>
         <textField/>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -91,9 +92,6 @@
     <t>Project Fynbus</t>
   </si>
   <si>
-    <t>Non-Task Related Timer</t>
-  </si>
-  <si>
     <t>Jonas</t>
   </si>
   <si>
@@ -215,6 +213,21 @@
   </si>
   <si>
     <t>Actual</t>
+  </si>
+  <si>
+    <t>Week 3 Generic Timer</t>
+  </si>
+  <si>
+    <t>Tests for Creating Offer Instance</t>
+  </si>
+  <si>
+    <t>Tests for Deleting Offer Instance</t>
+  </si>
+  <si>
+    <t>Tests for Ordering Offers</t>
+  </si>
+  <si>
+    <t>Week 2 Generic Timer</t>
   </si>
 </sst>
 </file>
@@ -590,25 +603,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T45"/>
+  <dimension ref="A1:T71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -631,7 +644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>42795</v>
       </c>
@@ -642,19 +655,19 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <v>0.75</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>42800</v>
       </c>
@@ -665,22 +678,22 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0.59279999999999999</v>
       </c>
       <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
       <c r="L3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>42800</v>
       </c>
@@ -691,44 +704,44 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0.61499999999999999</v>
       </c>
       <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
       <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
         <v>38</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>39</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>40</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>41</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>43</v>
       </c>
-      <c r="R4" t="s">
-        <v>44</v>
-      </c>
       <c r="S4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>42801</v>
       </c>
@@ -739,16 +752,16 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0.18029999999999999</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -780,7 +793,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>42801</v>
       </c>
@@ -791,19 +804,19 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>4.3900000000000002E-2</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>42801</v>
       </c>
@@ -814,22 +827,22 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>42802</v>
       </c>
@@ -840,19 +853,19 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0.21609999999999999</v>
       </c>
       <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -860,8 +873,11 @@
       <c r="M8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>42802</v>
       </c>
@@ -872,19 +888,19 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1.3442000000000001</v>
       </c>
       <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
       <c r="K9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L9" s="2">
         <f>SUM(Week1)</f>
@@ -892,10 +908,14 @@
       </c>
       <c r="M9" s="2">
         <f>SUM(Week2)</f>
-        <v>13.710799999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>20.172799999999995</v>
+      </c>
+      <c r="N9" s="2">
+        <f>SUM(Week3)</f>
+        <v>20.850799999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>42802</v>
       </c>
@@ -906,19 +926,19 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0.67689999999999995</v>
       </c>
       <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L10" s="2">
         <f>L9-$T$5</f>
@@ -926,10 +946,14 @@
       </c>
       <c r="M10" s="2">
         <f>M9-$T$5</f>
-        <v>-21.289200000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-14.827200000000005</v>
+      </c>
+      <c r="N10" s="2">
+        <f>N9-$T$5</f>
+        <v>-14.149200000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>42802</v>
       </c>
@@ -940,19 +964,19 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>2.8022</v>
       </c>
       <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>42802</v>
       </c>
@@ -963,19 +987,19 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0.25829999999999997</v>
       </c>
       <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
         <v>19</v>
       </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>42802</v>
       </c>
@@ -986,19 +1010,19 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0.40389999999999998</v>
       </c>
       <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
         <v>13</v>
       </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>42803</v>
       </c>
@@ -1009,19 +1033,19 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0.93140000000000001</v>
       </c>
       <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
         <v>16</v>
       </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>42803</v>
       </c>
@@ -1032,19 +1056,19 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>5.5800000000000002E-2</v>
       </c>
       <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
         <v>19</v>
       </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>42803</v>
       </c>
@@ -1055,19 +1079,19 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0.1681</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>42803</v>
       </c>
@@ -1078,19 +1102,19 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>9.4399999999999998E-2</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>42803</v>
       </c>
@@ -1101,19 +1125,19 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0.15640000000000001</v>
       </c>
       <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
         <v>16</v>
       </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>42803</v>
       </c>
@@ -1124,19 +1148,19 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>0.28139999999999998</v>
       </c>
       <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
         <v>19</v>
       </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>42803</v>
       </c>
@@ -1147,19 +1171,19 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>6.7799999999999999E-2</v>
       </c>
       <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
         <v>13</v>
       </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>42803</v>
       </c>
@@ -1170,19 +1194,19 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>3.0800000000000001E-2</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>42803</v>
       </c>
@@ -1193,19 +1217,19 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>0.38940000000000002</v>
       </c>
       <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
         <v>19</v>
       </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>42803</v>
       </c>
@@ -1216,19 +1240,19 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>0.53</v>
       </c>
       <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
         <v>13</v>
       </c>
-      <c r="G23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>42803</v>
       </c>
@@ -1239,19 +1263,19 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>0.69330000000000003</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>42803</v>
       </c>
@@ -1262,19 +1286,19 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>0.64470000000000005</v>
       </c>
       <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
         <v>16</v>
       </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>42808</v>
       </c>
@@ -1285,19 +1309,19 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>0.46529999999999999</v>
       </c>
       <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
         <v>16</v>
       </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>42808</v>
       </c>
@@ -1308,19 +1332,19 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E27">
         <v>8.3299999999999999E-2</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>42808</v>
       </c>
@@ -1331,19 +1355,19 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E28">
         <v>0.27829999999999999</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>42808</v>
       </c>
@@ -1354,19 +1378,19 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29">
         <v>1.1960999999999999</v>
       </c>
       <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
         <v>19</v>
       </c>
-      <c r="G29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>42809</v>
       </c>
@@ -1377,19 +1401,19 @@
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30">
         <v>0.88219999999999998</v>
       </c>
       <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
         <v>13</v>
       </c>
-      <c r="G30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>42809</v>
       </c>
@@ -1400,19 +1424,19 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>1.3828</v>
       </c>
       <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
         <v>16</v>
       </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>42809</v>
       </c>
@@ -1423,19 +1447,19 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E32">
         <v>1.67E-2</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>42809</v>
       </c>
@@ -1446,19 +1470,19 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33">
         <v>1.1299999999999999</v>
       </c>
       <c r="F33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s">
         <v>31</v>
       </c>
-      <c r="G33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>42809</v>
       </c>
@@ -1469,19 +1493,19 @@
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34">
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>42809</v>
       </c>
@@ -1492,19 +1516,19 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E35">
         <v>5.5599999999999997E-2</v>
       </c>
       <c r="F35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>42809</v>
       </c>
@@ -1515,19 +1539,19 @@
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E36">
         <v>0.26190000000000002</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>42809</v>
       </c>
@@ -1538,19 +1562,19 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E37">
         <v>1.5283</v>
       </c>
       <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
         <v>19</v>
       </c>
-      <c r="G37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>42810</v>
       </c>
@@ -1561,19 +1585,19 @@
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E38">
-        <v>6.08E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>42810</v>
       </c>
@@ -1584,19 +1608,19 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E39">
-        <v>0.1764</v>
+        <v>9.3100000000000002E-2</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>42810</v>
       </c>
@@ -1610,16 +1634,16 @@
         <v>29</v>
       </c>
       <c r="E40">
-        <v>1.67E-2</v>
+        <v>0.53690000000000004</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>42810</v>
       </c>
@@ -1633,16 +1657,16 @@
         <v>29</v>
       </c>
       <c r="E41">
-        <v>9.3100000000000002E-2</v>
+        <v>0.28639999999999999</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>42810</v>
       </c>
@@ -1653,19 +1677,19 @@
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E42">
-        <v>0.53690000000000004</v>
+        <v>0.19420000000000001</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42810</v>
       </c>
@@ -1676,19 +1700,19 @@
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E43">
-        <v>0.28639999999999999</v>
+        <v>6.5799999999999997E-2</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42810</v>
       </c>
@@ -1699,19 +1723,19 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E44">
-        <v>0.19420000000000001</v>
+        <v>0.3397</v>
       </c>
       <c r="F44" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42810</v>
       </c>
@@ -1722,16 +1746,614 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="F45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>42810</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46">
+        <v>0.1764</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>42810</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47">
+        <v>0.26719999999999999</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>42810</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>0.31030000000000002</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>42810</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49">
+        <v>1.1664000000000001</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>42810</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50">
+        <v>0.1011</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>42810</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
         <v>36</v>
       </c>
-      <c r="E45">
-        <v>6.5799999999999997E-2</v>
-      </c>
-      <c r="F45" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" t="s">
-        <v>11</v>
+      <c r="E51">
+        <v>0.54249999999999998</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>42810</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>42810</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53">
+        <v>1.2153</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>42810</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54">
+        <v>0.73219999999999996</v>
+      </c>
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>42810</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55">
+        <v>0.52190000000000003</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>42810</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56">
+        <v>0.46810000000000002</v>
+      </c>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>42810</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57">
+        <v>0.48170000000000002</v>
+      </c>
+      <c r="F57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>42814</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58">
+        <v>0.1386</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>42814</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59">
+        <v>2.2425000000000002</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>42814</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60">
+        <v>1.3332999999999999</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>42815</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61">
+        <v>4.25</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>42815</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>53</v>
+      </c>
+      <c r="E62">
+        <v>2.1457999999999999</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>42815</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E63">
+        <v>2.1427999999999998</v>
+      </c>
+      <c r="F63" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>42816</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64">
+        <v>1.2121999999999999</v>
+      </c>
+      <c r="F64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>42816</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65">
+        <v>1.3028</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>42816</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E66">
+        <v>1.2646999999999999</v>
+      </c>
+      <c r="F66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>42816</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67">
+        <v>1.8794</v>
+      </c>
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>42816</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68">
+        <v>1.4128000000000001</v>
+      </c>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>42816</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>53</v>
+      </c>
+      <c r="E69">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>42816</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>53</v>
+      </c>
+      <c r="E70">
+        <v>1.4228000000000001</v>
+      </c>
+      <c r="F70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>42816</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E71">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1747,24 +2369,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1787,7 +2409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>42795</v>
       </c>
@@ -1798,19 +2420,19 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <v>0.75</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>42800</v>
       </c>
@@ -1821,19 +2443,19 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0.59279999999999999</v>
       </c>
       <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>42800</v>
       </c>
@@ -1844,19 +2466,19 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0.61499999999999999</v>
       </c>
       <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>42801</v>
       </c>
@@ -1867,19 +2489,19 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0.18029999999999999</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>42801</v>
       </c>
@@ -1890,19 +2512,19 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>4.3900000000000002E-2</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>42801</v>
       </c>
@@ -1913,19 +2535,19 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>42802</v>
       </c>
@@ -1936,19 +2558,19 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0.21609999999999999</v>
       </c>
       <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>42802</v>
       </c>
@@ -1959,19 +2581,19 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1.3442000000000001</v>
       </c>
       <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>42802</v>
       </c>
@@ -1982,19 +2604,19 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0.67689999999999995</v>
       </c>
       <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>42802</v>
       </c>
@@ -2005,19 +2627,19 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>2.8022</v>
       </c>
       <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>42802</v>
       </c>
@@ -2028,19 +2650,19 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0.25829999999999997</v>
       </c>
       <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
         <v>19</v>
       </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>42802</v>
       </c>
@@ -2051,19 +2673,19 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0.40389999999999998</v>
       </c>
       <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
         <v>13</v>
       </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>42803</v>
       </c>
@@ -2074,19 +2696,19 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0.93140000000000001</v>
       </c>
       <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
         <v>16</v>
       </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>42803</v>
       </c>
@@ -2097,19 +2719,19 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>5.5800000000000002E-2</v>
       </c>
       <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
         <v>19</v>
       </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>42803</v>
       </c>
@@ -2120,19 +2742,19 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0.1681</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>42803</v>
       </c>
@@ -2143,19 +2765,19 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>9.4399999999999998E-2</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>42803</v>
       </c>
@@ -2166,19 +2788,19 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0.15640000000000001</v>
       </c>
       <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
         <v>16</v>
       </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>42803</v>
       </c>
@@ -2189,19 +2811,19 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>0.28139999999999998</v>
       </c>
       <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
         <v>19</v>
       </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>42803</v>
       </c>
@@ -2212,19 +2834,19 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>6.7799999999999999E-2</v>
       </c>
       <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
         <v>13</v>
       </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>42803</v>
       </c>
@@ -2235,19 +2857,19 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>3.0800000000000001E-2</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>42803</v>
       </c>
@@ -2258,19 +2880,19 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>0.38940000000000002</v>
       </c>
       <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
         <v>19</v>
       </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>42803</v>
       </c>
@@ -2281,19 +2903,19 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>0.53</v>
       </c>
       <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
         <v>13</v>
       </c>
-      <c r="G23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>42803</v>
       </c>
@@ -2304,19 +2926,19 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>0.69330000000000003</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>42803</v>
       </c>
@@ -2327,19 +2949,19 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>0.64470000000000005</v>
       </c>
       <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
         <v>16</v>
       </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>42808</v>
       </c>
@@ -2350,19 +2972,19 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26">
         <v>8.3299999999999999E-2</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>42808</v>
       </c>
@@ -2373,19 +2995,19 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27">
         <v>0.27829999999999999</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>42808</v>
       </c>
@@ -2396,19 +3018,19 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0.46529999999999999</v>
       </c>
       <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
         <v>16</v>
       </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>42808</v>
       </c>
@@ -2419,19 +3041,19 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29">
         <v>1.1960999999999999</v>
       </c>
       <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
         <v>19</v>
       </c>
-      <c r="G29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>42809</v>
       </c>
@@ -2442,19 +3064,19 @@
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30">
         <v>1.67E-2</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>42809</v>
       </c>
@@ -2465,19 +3087,19 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31">
         <v>1.1299999999999999</v>
       </c>
       <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
         <v>31</v>
       </c>
-      <c r="G31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>42809</v>
       </c>
@@ -2488,19 +3110,19 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32">
         <v>0.26190000000000002</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>42809</v>
       </c>
@@ -2511,19 +3133,19 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33">
         <v>0.88219999999999998</v>
       </c>
       <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
         <v>13</v>
       </c>
-      <c r="G33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>42809</v>
       </c>
@@ -2534,19 +3156,19 @@
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34">
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>42809</v>
       </c>
@@ -2557,19 +3179,19 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>1.3828</v>
       </c>
       <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
         <v>16</v>
       </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>42809</v>
       </c>
@@ -2580,19 +3202,19 @@
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E36">
         <v>5.5599999999999997E-2</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>42809</v>
       </c>
@@ -2603,19 +3225,19 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E37">
         <v>1.5283</v>
       </c>
       <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
         <v>19</v>
       </c>
-      <c r="G37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>42810</v>
       </c>
@@ -2626,19 +3248,19 @@
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E38">
-        <v>0.49690000000000001</v>
+        <v>1.67E-2</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>42810</v>
       </c>
@@ -2649,19 +3271,19 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E39">
-        <v>1.67E-2</v>
+        <v>9.3100000000000002E-2</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>42810</v>
       </c>
@@ -2675,16 +3297,16 @@
         <v>29</v>
       </c>
       <c r="E40">
-        <v>9.3100000000000002E-2</v>
+        <v>0.53690000000000004</v>
       </c>
       <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s">
         <v>19</v>
       </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>42810</v>
       </c>
@@ -2695,19 +3317,19 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41">
+        <v>0.28639999999999999</v>
+      </c>
+      <c r="F41" t="s">
         <v>30</v>
       </c>
-      <c r="E41">
-        <v>0.53690000000000004</v>
-      </c>
-      <c r="F41" t="s">
-        <v>19</v>
-      </c>
       <c r="G41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>42810</v>
       </c>
@@ -2718,19 +3340,19 @@
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E42">
-        <v>0.28639999999999999</v>
+        <v>0.19420000000000001</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42810</v>
       </c>
@@ -2741,19 +3363,19 @@
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E43">
-        <v>0.19420000000000001</v>
+        <v>6.5799999999999997E-2</v>
       </c>
       <c r="F43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42810</v>
       </c>
@@ -2764,19 +3386,19 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E44">
-        <v>6.5799999999999997E-2</v>
+        <v>0.3397</v>
       </c>
       <c r="F44" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42810</v>
       </c>
@@ -2787,19 +3409,19 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E45">
-        <v>0.3397</v>
+        <v>0.32750000000000001</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>42810</v>
       </c>
@@ -2810,19 +3432,19 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E46">
-        <v>0.32750000000000001</v>
+        <v>0.1764</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>42810</v>
       </c>
@@ -2833,19 +3455,19 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47">
+        <v>0.26719999999999999</v>
+      </c>
+      <c r="F47" t="s">
         <v>12</v>
       </c>
-      <c r="E47">
-        <v>0.1764</v>
-      </c>
-      <c r="F47" t="s">
-        <v>10</v>
-      </c>
       <c r="G47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>42810</v>
       </c>
@@ -2856,19 +3478,19 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48">
-        <v>0.26719999999999999</v>
+        <v>0.31030000000000002</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>42810</v>
       </c>
@@ -2879,19 +3501,19 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E49">
-        <v>0.31030000000000002</v>
+        <v>1.1664000000000001</v>
       </c>
       <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
         <v>16</v>
       </c>
-      <c r="G49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>42810</v>
       </c>
@@ -2902,19 +3524,19 @@
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50">
-        <v>1.1664000000000001</v>
+        <v>0.1011</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>42810</v>
       </c>
@@ -2925,19 +3547,19 @@
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E51">
-        <v>0.1011</v>
+        <v>0.54249999999999998</v>
       </c>
       <c r="F51" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>42810</v>
       </c>
@@ -2948,19 +3570,19 @@
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E52">
-        <v>0.54249999999999998</v>
+        <v>4.8899999999999999E-2</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>42810</v>
       </c>
@@ -2971,20 +3593,434 @@
         <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E53">
-        <v>4.8899999999999999E-2</v>
+        <v>1.2153</v>
       </c>
       <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>42810</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54">
+        <v>0.73219999999999996</v>
+      </c>
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>42810</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55">
+        <v>0.52190000000000003</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>42810</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56">
+        <v>0.46810000000000002</v>
+      </c>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s">
         <v>19</v>
       </c>
-      <c r="G53" t="s">
-        <v>20</v>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>42810</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57">
+        <v>0.48170000000000002</v>
+      </c>
+      <c r="F57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>42814</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58">
+        <v>0.1386</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>42814</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59">
+        <v>2.2425000000000002</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>42814</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60">
+        <v>1.3332999999999999</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>42815</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61">
+        <v>4.25</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>42815</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>53</v>
+      </c>
+      <c r="E62">
+        <v>2.1457999999999999</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>42815</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E63">
+        <v>2.1427999999999998</v>
+      </c>
+      <c r="F63" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>42816</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64">
+        <v>1.2121999999999999</v>
+      </c>
+      <c r="F64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>42816</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65">
+        <v>1.3028</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>42816</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E66">
+        <v>1.2646999999999999</v>
+      </c>
+      <c r="F66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>42816</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67">
+        <v>1.8794</v>
+      </c>
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>42816</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68">
+        <v>1.4128000000000001</v>
+      </c>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>42816</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>53</v>
+      </c>
+      <c r="E69">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>42816</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>53</v>
+      </c>
+      <c r="E70">
+        <v>1.4228000000000001</v>
+      </c>
+      <c r="F70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>42816</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E71">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G54">
+  <sortState ref="A2:G71">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TimeSheets.xlsx
+++ b/TimeSheets.xlsx
@@ -13,10 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="project_fynbus_time_tracking" localSheetId="1">Sheet2!$A$1:$G$71</definedName>
+    <definedName name="project_fynbus_time_tracking_1" localSheetId="1">Sheet2!$A$1:$G$78</definedName>
     <definedName name="project_fynbus_time_tracking_3" localSheetId="0">Sheet1!$A$1:$G$45</definedName>
     <definedName name="Week1">Sheet1!$E$2:$E$25</definedName>
     <definedName name="Week2">Sheet1!$E$26:$E$57</definedName>
@@ -33,8 +33,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="project_fynbus_time_tracking" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="65001" sourceFile="C:\Users\joaml\Downloads\project_fynbus_time_tracking.csv" comma="1">
+  <connection id="1" name="project_fynbus_time_tracking(1)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\Users\joaml\Downloads\project_fynbus_time_tracking(1).csv" comma="1">
       <textFields count="7">
         <textField type="MDY"/>
         <textField/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -228,6 +228,15 @@
   </si>
   <si>
     <t>Week 2 Generic Timer</t>
+  </si>
+  <si>
+    <t>Fulfill Offers Test</t>
+  </si>
+  <si>
+    <t>Update ClassDiagram</t>
+  </si>
+  <si>
+    <t>Test for Routes</t>
   </si>
 </sst>
 </file>
@@ -303,7 +312,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="project_fynbus_time_tracking" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="project_fynbus_time_tracking(1)" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -603,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T71"/>
+  <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -912,7 +921,7 @@
       </c>
       <c r="N9" s="2">
         <f>SUM(Week3)</f>
-        <v>20.850799999999996</v>
+        <v>22.390999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -950,7 +959,7 @@
       </c>
       <c r="N10" s="2">
         <f>N9-$T$5</f>
-        <v>-14.149200000000004</v>
+        <v>-12.609000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -2275,16 +2284,16 @@
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E68">
-        <v>1.4128000000000001</v>
+        <v>1.4861</v>
       </c>
       <c r="F68" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -2298,10 +2307,10 @@
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E69">
-        <v>5.3900000000000003E-2</v>
+        <v>1.5261</v>
       </c>
       <c r="F69" t="s">
         <v>18</v>
@@ -2324,13 +2333,13 @@
         <v>53</v>
       </c>
       <c r="E70">
-        <v>1.4228000000000001</v>
+        <v>1.4128000000000001</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -2347,13 +2356,174 @@
         <v>53</v>
       </c>
       <c r="E71">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>42816</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72">
+        <v>1.4228000000000001</v>
+      </c>
+      <c r="F72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>42816</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>53</v>
+      </c>
+      <c r="E73">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F73" t="s">
         <v>15</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G73" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74">
+        <v>0.31669999999999998</v>
+      </c>
+      <c r="F74" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>56</v>
+      </c>
+      <c r="E75">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>57</v>
+      </c>
+      <c r="E76">
+        <v>0.37609999999999999</v>
+      </c>
+      <c r="F76" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>53</v>
+      </c>
+      <c r="E77">
+        <v>0.40670000000000001</v>
+      </c>
+      <c r="F77" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>53</v>
+      </c>
+      <c r="E78">
+        <v>0.40360000000000001</v>
+      </c>
+      <c r="F78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2369,10 +2539,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:G71"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3938,16 +4108,16 @@
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E68">
-        <v>1.4128000000000001</v>
+        <v>1.4861</v>
       </c>
       <c r="F68" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -3961,10 +4131,10 @@
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E69">
-        <v>5.3900000000000003E-2</v>
+        <v>1.5261</v>
       </c>
       <c r="F69" t="s">
         <v>18</v>
@@ -3987,13 +4157,13 @@
         <v>53</v>
       </c>
       <c r="E70">
-        <v>1.4228000000000001</v>
+        <v>1.4128000000000001</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -4010,17 +4180,178 @@
         <v>53</v>
       </c>
       <c r="E71">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>42816</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72">
+        <v>1.4228000000000001</v>
+      </c>
+      <c r="F72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>42816</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>53</v>
+      </c>
+      <c r="E73">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F73" t="s">
         <v>15</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G73" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74">
+        <v>0.31669999999999998</v>
+      </c>
+      <c r="F74" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>56</v>
+      </c>
+      <c r="E75">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>57</v>
+      </c>
+      <c r="E76">
+        <v>0.37609999999999999</v>
+      </c>
+      <c r="F76" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>53</v>
+      </c>
+      <c r="E77">
+        <v>0.40670000000000001</v>
+      </c>
+      <c r="F77" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>53</v>
+      </c>
+      <c r="E78">
+        <v>0.40360000000000001</v>
+      </c>
+      <c r="F78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:G71">
+  <sortState ref="A2:G78">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TimeSheets.xlsx
+++ b/TimeSheets.xlsx
@@ -20,7 +20,7 @@
     <definedName name="project_fynbus_time_tracking_3" localSheetId="0">Sheet1!$A$1:$G$45</definedName>
     <definedName name="Week1">Sheet1!$E$2:$E$25</definedName>
     <definedName name="Week2">Sheet1!$E$26:$E$57</definedName>
-    <definedName name="Week3">Sheet1!$E$58:$E$71</definedName>
+    <definedName name="Week3">Sheet1!$E$58:$E$78</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:G78"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,7 +921,7 @@
       </c>
       <c r="N9" s="2">
         <f>SUM(Week3)</f>
-        <v>22.390999999999998</v>
+        <v>25.4178</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -959,7 +959,7 @@
       </c>
       <c r="N10" s="2">
         <f>N9-$T$5</f>
-        <v>-12.609000000000002</v>
+        <v>-9.5822000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">

--- a/TimeSheets.xlsx
+++ b/TimeSheets.xlsx
@@ -13,14 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="project_fynbus_time_tracking_1" localSheetId="1">Sheet2!$A$1:$G$78</definedName>
+    <definedName name="project_fynbus_time_tracking_2" localSheetId="1">Sheet2!$A$1:$G$119</definedName>
     <definedName name="project_fynbus_time_tracking_3" localSheetId="0">Sheet1!$A$1:$G$45</definedName>
     <definedName name="Week1">Sheet1!$E$2:$E$25</definedName>
     <definedName name="Week2">Sheet1!$E$26:$E$57</definedName>
-    <definedName name="Week3">Sheet1!$E$58:$E$78</definedName>
+    <definedName name="Week3">Sheet1!$E$58:$E$87</definedName>
+    <definedName name="Week4">Sheet1!$E$88:$E$119</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -33,8 +34,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="project_fynbus_time_tracking(1)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="65001" sourceFile="C:\Users\joaml\Downloads\project_fynbus_time_tracking(1).csv" comma="1">
+  <connection id="1" name="project_fynbus_time_tracking(2)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\Users\joaml\Downloads\project_fynbus_time_tracking(2).csv" comma="1">
       <textFields count="7">
         <textField type="MDY"/>
         <textField/>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -237,6 +238,30 @@
   </si>
   <si>
     <t>Test for Routes</t>
+  </si>
+  <si>
+    <t>Week 4 Generic Timer</t>
+  </si>
+  <si>
+    <t>Fulfill Integration Tests</t>
+  </si>
+  <si>
+    <t>Fulfill Contractor Tests</t>
+  </si>
+  <si>
+    <t>Fulfill Route Tests</t>
+  </si>
+  <si>
+    <t>Tests for Contractors</t>
+  </si>
+  <si>
+    <t>Integration Tests</t>
+  </si>
+  <si>
+    <t>Week 1/2 Generic Timer</t>
+  </si>
+  <si>
+    <t>SSD</t>
   </si>
 </sst>
 </file>
@@ -312,7 +337,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="project_fynbus_time_tracking(1)" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="project_fynbus_time_tracking(2)" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -612,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T78"/>
+  <dimension ref="A1:T119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -885,6 +910,9 @@
       <c r="N8">
         <v>3</v>
       </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -921,7 +949,11 @@
       </c>
       <c r="N9" s="2">
         <f>SUM(Week3)</f>
-        <v>25.4178</v>
+        <v>34.927100000000003</v>
+      </c>
+      <c r="O9" s="2">
+        <f>SUM(Week4)</f>
+        <v>35.5518</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -959,7 +991,11 @@
       </c>
       <c r="N10" s="2">
         <f>N9-$T$5</f>
-        <v>-9.5822000000000003</v>
+        <v>-7.2899999999997078E-2</v>
+      </c>
+      <c r="O10" s="2">
+        <f>O9-$T$5</f>
+        <v>0.55180000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -2425,13 +2461,13 @@
         <v>55</v>
       </c>
       <c r="E74">
-        <v>0.31669999999999998</v>
+        <v>2.0491999999999999</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G74" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -2445,16 +2481,16 @@
         <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E75">
-        <v>5.1700000000000003E-2</v>
+        <v>2.1036000000000001</v>
       </c>
       <c r="F75" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G75" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2468,10 +2504,10 @@
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E76">
-        <v>0.37609999999999999</v>
+        <v>0.2586</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -2491,16 +2527,16 @@
         <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E77">
-        <v>0.40670000000000001</v>
+        <v>0.1983</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -2514,16 +2550,959 @@
         <v>8</v>
       </c>
       <c r="D78" t="s">
+        <v>60</v>
+      </c>
+      <c r="E78">
+        <v>0.2</v>
+      </c>
+      <c r="F78" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
         <v>53</v>
       </c>
-      <c r="E78">
+      <c r="E79">
+        <v>0.40670000000000001</v>
+      </c>
+      <c r="F79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>53</v>
+      </c>
+      <c r="E80">
         <v>0.40360000000000001</v>
       </c>
-      <c r="F78" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78" t="s">
-        <v>10</v>
+      <c r="F80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>56</v>
+      </c>
+      <c r="E81">
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="F81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>57</v>
+      </c>
+      <c r="E82">
+        <v>0.37609999999999999</v>
+      </c>
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>57</v>
+      </c>
+      <c r="E83">
+        <v>1.5919000000000001</v>
+      </c>
+      <c r="F83" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>61</v>
+      </c>
+      <c r="E84">
+        <v>0.61860000000000004</v>
+      </c>
+      <c r="F84" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>61</v>
+      </c>
+      <c r="E85">
+        <v>0.61670000000000003</v>
+      </c>
+      <c r="F85" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>62</v>
+      </c>
+      <c r="E86">
+        <v>0.8367</v>
+      </c>
+      <c r="F86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>50</v>
+      </c>
+      <c r="E87">
+        <v>0.53690000000000004</v>
+      </c>
+      <c r="F87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>42821</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E88">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="F88" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>42821</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>58</v>
+      </c>
+      <c r="E89">
+        <v>22.636399999999998</v>
+      </c>
+      <c r="F89" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>42821</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>63</v>
+      </c>
+      <c r="E90">
+        <v>1.4402999999999999</v>
+      </c>
+      <c r="F90" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>42821</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>63</v>
+      </c>
+      <c r="E91">
+        <v>1.4428000000000001</v>
+      </c>
+      <c r="F91" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>42821</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>65</v>
+      </c>
+      <c r="E92">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="F92" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>42821</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93">
+        <v>0.30530000000000002</v>
+      </c>
+      <c r="F93" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>42822</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>51</v>
+      </c>
+      <c r="E94">
+        <v>0.43719999999999998</v>
+      </c>
+      <c r="F94" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>42822</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>52</v>
+      </c>
+      <c r="E95">
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="F95" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>42822</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>61</v>
+      </c>
+      <c r="E96">
+        <v>1.67E-2</v>
+      </c>
+      <c r="F96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>42822</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>62</v>
+      </c>
+      <c r="E97">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="F97" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>42822</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>63</v>
+      </c>
+      <c r="E98">
+        <v>0.28220000000000001</v>
+      </c>
+      <c r="F98" t="s">
+        <v>18</v>
+      </c>
+      <c r="G98" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>42822</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>63</v>
+      </c>
+      <c r="E99">
+        <v>0.28189999999999998</v>
+      </c>
+      <c r="F99" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>42822</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>65</v>
+      </c>
+      <c r="E100">
+        <v>0.13689999999999999</v>
+      </c>
+      <c r="F100" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>42822</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>65</v>
+      </c>
+      <c r="E101">
+        <v>0.61970000000000003</v>
+      </c>
+      <c r="F101" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>42822</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>65</v>
+      </c>
+      <c r="E102">
+        <v>0.61080000000000001</v>
+      </c>
+      <c r="F102" t="s">
+        <v>18</v>
+      </c>
+      <c r="G102" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>42823</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>58</v>
+      </c>
+      <c r="E103">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="F103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>42823</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>59</v>
+      </c>
+      <c r="E104">
+        <v>1.2143999999999999</v>
+      </c>
+      <c r="F104" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>42823</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" t="s">
+        <v>59</v>
+      </c>
+      <c r="E105">
+        <v>1.5667</v>
+      </c>
+      <c r="F105" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>42823</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" t="s">
+        <v>60</v>
+      </c>
+      <c r="E106">
+        <v>0.31609999999999999</v>
+      </c>
+      <c r="F106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>42823</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>51</v>
+      </c>
+      <c r="E107">
+        <v>2.69E-2</v>
+      </c>
+      <c r="F107" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>42823</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>52</v>
+      </c>
+      <c r="E108">
+        <v>2.69E-2</v>
+      </c>
+      <c r="F108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>42823</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" t="s">
+        <v>53</v>
+      </c>
+      <c r="E109">
+        <v>7.5300000000000006E-2</v>
+      </c>
+      <c r="F109" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>42823</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="s">
+        <v>56</v>
+      </c>
+      <c r="E110">
+        <v>0.45529999999999998</v>
+      </c>
+      <c r="F110" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>42823</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>56</v>
+      </c>
+      <c r="E111">
+        <v>1.5153000000000001</v>
+      </c>
+      <c r="F111" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>42823</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" t="s">
+        <v>57</v>
+      </c>
+      <c r="E112">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="F112" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>42824</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" t="s">
+        <v>58</v>
+      </c>
+      <c r="E113">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="F113" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>42824</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>59</v>
+      </c>
+      <c r="E114">
+        <v>1.67E-2</v>
+      </c>
+      <c r="F114" t="s">
+        <v>18</v>
+      </c>
+      <c r="G114" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>42824</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" t="s">
+        <v>55</v>
+      </c>
+      <c r="E115">
+        <v>0.28810000000000002</v>
+      </c>
+      <c r="F115" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>42824</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" t="s">
+        <v>60</v>
+      </c>
+      <c r="E116">
+        <v>4.19E-2</v>
+      </c>
+      <c r="F116" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>42824</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" t="s">
+        <v>56</v>
+      </c>
+      <c r="E117">
+        <v>0.1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>42824</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" t="s">
+        <v>56</v>
+      </c>
+      <c r="E118">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="F118" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>42824</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" t="s">
+        <v>62</v>
+      </c>
+      <c r="E119">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="F119" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2539,10 +3518,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:G78"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2551,7 +3530,7 @@
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -3763,7 +4742,7 @@
         <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E53">
         <v>1.2153</v>
@@ -3786,7 +4765,7 @@
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E54">
         <v>0.73219999999999996</v>
@@ -3809,7 +4788,7 @@
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E55">
         <v>0.52190000000000003</v>
@@ -3832,7 +4811,7 @@
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E56">
         <v>0.46810000000000002</v>
@@ -3855,7 +4834,7 @@
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E57">
         <v>0.48170000000000002</v>
@@ -3878,10 +4857,10 @@
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E58">
-        <v>0.1386</v>
+        <v>2.2425000000000002</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -3901,10 +4880,10 @@
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E59">
-        <v>2.2425000000000002</v>
+        <v>1.3332999999999999</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -3924,10 +4903,10 @@
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E60">
-        <v>1.3332999999999999</v>
+        <v>0.1386</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -4016,16 +4995,16 @@
         <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E64">
-        <v>1.2121999999999999</v>
+        <v>1.4861</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G64" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -4039,16 +5018,16 @@
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E65">
-        <v>1.3028</v>
+        <v>1.5261</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -4062,16 +5041,16 @@
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E66">
-        <v>1.2646999999999999</v>
+        <v>1.4128000000000001</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G66" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -4085,16 +5064,16 @@
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E67">
-        <v>1.8794</v>
+        <v>5.3900000000000003E-2</v>
       </c>
       <c r="F67" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -4108,16 +5087,16 @@
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E68">
-        <v>1.4861</v>
+        <v>1.4228000000000001</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -4131,16 +5110,16 @@
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E69">
-        <v>1.5261</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G69" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -4154,16 +5133,16 @@
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E70">
-        <v>1.4128000000000001</v>
+        <v>1.2121999999999999</v>
       </c>
       <c r="F70" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G70" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -4177,16 +5156,16 @@
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E71">
-        <v>5.3900000000000003E-2</v>
+        <v>1.3028</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -4200,16 +5179,16 @@
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E72">
-        <v>1.4228000000000001</v>
+        <v>1.2646999999999999</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -4223,16 +5202,16 @@
         <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E73">
-        <v>4.9200000000000001E-2</v>
+        <v>1.8794</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -4249,13 +5228,13 @@
         <v>55</v>
       </c>
       <c r="E74">
-        <v>0.31669999999999998</v>
+        <v>2.0491999999999999</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G74" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -4269,16 +5248,16 @@
         <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E75">
-        <v>5.1700000000000003E-2</v>
+        <v>2.1036000000000001</v>
       </c>
       <c r="F75" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G75" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -4292,10 +5271,10 @@
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E76">
-        <v>0.37609999999999999</v>
+        <v>0.2586</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -4315,16 +5294,16 @@
         <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E77">
-        <v>0.40670000000000001</v>
+        <v>0.1983</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -4338,21 +5317,964 @@
         <v>8</v>
       </c>
       <c r="D78" t="s">
+        <v>60</v>
+      </c>
+      <c r="E78">
+        <v>0.2</v>
+      </c>
+      <c r="F78" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
         <v>53</v>
       </c>
-      <c r="E78">
+      <c r="E79">
+        <v>0.40670000000000001</v>
+      </c>
+      <c r="F79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>53</v>
+      </c>
+      <c r="E80">
         <v>0.40360000000000001</v>
       </c>
-      <c r="F78" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78" t="s">
-        <v>10</v>
+      <c r="F80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>56</v>
+      </c>
+      <c r="E81">
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="F81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>57</v>
+      </c>
+      <c r="E82">
+        <v>0.37609999999999999</v>
+      </c>
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>57</v>
+      </c>
+      <c r="E83">
+        <v>1.5919000000000001</v>
+      </c>
+      <c r="F83" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>61</v>
+      </c>
+      <c r="E84">
+        <v>0.61860000000000004</v>
+      </c>
+      <c r="F84" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>61</v>
+      </c>
+      <c r="E85">
+        <v>0.61670000000000003</v>
+      </c>
+      <c r="F85" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>62</v>
+      </c>
+      <c r="E86">
+        <v>0.8367</v>
+      </c>
+      <c r="F86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>50</v>
+      </c>
+      <c r="E87">
+        <v>0.53690000000000004</v>
+      </c>
+      <c r="F87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>42821</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E88">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="F88" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>42821</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>58</v>
+      </c>
+      <c r="E89">
+        <v>22.636399999999998</v>
+      </c>
+      <c r="F89" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>42821</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>63</v>
+      </c>
+      <c r="E90">
+        <v>1.4402999999999999</v>
+      </c>
+      <c r="F90" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>42821</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>63</v>
+      </c>
+      <c r="E91">
+        <v>1.4428000000000001</v>
+      </c>
+      <c r="F91" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>42821</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>65</v>
+      </c>
+      <c r="E92">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="F92" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>42821</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93">
+        <v>0.30530000000000002</v>
+      </c>
+      <c r="F93" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>42822</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>51</v>
+      </c>
+      <c r="E94">
+        <v>0.43719999999999998</v>
+      </c>
+      <c r="F94" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>42822</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>52</v>
+      </c>
+      <c r="E95">
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="F95" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>42822</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>61</v>
+      </c>
+      <c r="E96">
+        <v>1.67E-2</v>
+      </c>
+      <c r="F96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>42822</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>62</v>
+      </c>
+      <c r="E97">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="F97" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>42822</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>63</v>
+      </c>
+      <c r="E98">
+        <v>0.28220000000000001</v>
+      </c>
+      <c r="F98" t="s">
+        <v>18</v>
+      </c>
+      <c r="G98" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>42822</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>63</v>
+      </c>
+      <c r="E99">
+        <v>0.28189999999999998</v>
+      </c>
+      <c r="F99" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>42822</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>65</v>
+      </c>
+      <c r="E100">
+        <v>0.13689999999999999</v>
+      </c>
+      <c r="F100" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>42822</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>65</v>
+      </c>
+      <c r="E101">
+        <v>0.61970000000000003</v>
+      </c>
+      <c r="F101" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>42822</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>65</v>
+      </c>
+      <c r="E102">
+        <v>0.61080000000000001</v>
+      </c>
+      <c r="F102" t="s">
+        <v>18</v>
+      </c>
+      <c r="G102" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>42823</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>58</v>
+      </c>
+      <c r="E103">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="F103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>42823</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>59</v>
+      </c>
+      <c r="E104">
+        <v>1.2143999999999999</v>
+      </c>
+      <c r="F104" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>42823</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" t="s">
+        <v>59</v>
+      </c>
+      <c r="E105">
+        <v>1.5667</v>
+      </c>
+      <c r="F105" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>42823</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" t="s">
+        <v>60</v>
+      </c>
+      <c r="E106">
+        <v>0.31609999999999999</v>
+      </c>
+      <c r="F106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>42823</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>51</v>
+      </c>
+      <c r="E107">
+        <v>2.69E-2</v>
+      </c>
+      <c r="F107" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>42823</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>52</v>
+      </c>
+      <c r="E108">
+        <v>2.69E-2</v>
+      </c>
+      <c r="F108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>42823</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" t="s">
+        <v>53</v>
+      </c>
+      <c r="E109">
+        <v>7.5300000000000006E-2</v>
+      </c>
+      <c r="F109" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>42823</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="s">
+        <v>56</v>
+      </c>
+      <c r="E110">
+        <v>0.45529999999999998</v>
+      </c>
+      <c r="F110" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>42823</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>56</v>
+      </c>
+      <c r="E111">
+        <v>1.5153000000000001</v>
+      </c>
+      <c r="F111" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>42823</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" t="s">
+        <v>57</v>
+      </c>
+      <c r="E112">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="F112" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>42824</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" t="s">
+        <v>58</v>
+      </c>
+      <c r="E113">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="F113" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>42824</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>59</v>
+      </c>
+      <c r="E114">
+        <v>1.67E-2</v>
+      </c>
+      <c r="F114" t="s">
+        <v>18</v>
+      </c>
+      <c r="G114" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>42824</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" t="s">
+        <v>55</v>
+      </c>
+      <c r="E115">
+        <v>0.28810000000000002</v>
+      </c>
+      <c r="F115" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>42824</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" t="s">
+        <v>60</v>
+      </c>
+      <c r="E116">
+        <v>4.19E-2</v>
+      </c>
+      <c r="F116" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>42824</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" t="s">
+        <v>56</v>
+      </c>
+      <c r="E117">
+        <v>0.1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>42824</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" t="s">
+        <v>56</v>
+      </c>
+      <c r="E118">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="F118" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>42824</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" t="s">
+        <v>62</v>
+      </c>
+      <c r="E119">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="F119" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G78">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:G119">
+    <sortCondition ref="A2:A119"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
